--- a/Dokumentit/Tuntikirjanpito.xlsx
+++ b/Dokumentit/Tuntikirjanpito.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="16275" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="16275" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tietorakenteiden ja Algoritmien harjoitustyö, periodi II</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Luetun tiedoston Huffman-koodien tulostus System.Outiin ja puun toiminnan varmentamista Eclipsen debuggerilla. Junit testien aloittamista, JavaDocien kirjoittamista.</t>
+  </si>
+  <si>
+    <t>Kohdetiedoston "dummy" kirjoitus (Huffman-koodit dumppautuu nyt kohdetiedostoon). Ennen kaikkea kuitenkin refaktorointia ja koodin siistimistä.</t>
+  </si>
+  <si>
+    <t>Kohdetiedoston "oikea" kirjoitus. Sanastoa ei vielä kirjoiteta tiedoston alkuun joten purkaminen ei onnistu.</t>
+  </si>
+  <si>
+    <t>Sanaston kirjoitus tiedoston alkuun. Purkualgoritmin aloitus.</t>
+  </si>
+  <si>
+    <t>Purkualgoritmin debuggausta. Purkualgoritmi mahdollisesti toimiikin jo oikein mutta Huffman-koodin pakkaus tavujen biteiksi lienee buginen. Nyt sekä pakkaus että purku toimii melkein: purussa vielä bugi joka tuottaa epämääräisiä virheitä striimin sekaan. Ongelma liittyy Huffman-koodiin joka luetaan kahdessa lohkossa levyltä (todiste: kun lohkokoko &gt; pakatun tiedoston koko, ongelma häviää).</t>
   </si>
 </sst>
 </file>
@@ -493,7 +505,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>41218</v>
       </c>
@@ -595,25 +607,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>41222</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>41223</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>41224</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>41225</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -661,7 +697,7 @@
       </c>
       <c r="B24" s="9">
         <f>SUM(B6:B23)</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8"/>
     </row>

--- a/Dokumentit/Tuntikirjanpito.xlsx
+++ b/Dokumentit/Tuntikirjanpito.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Tietorakenteiden ja Algoritmien harjoitustyö, periodi II</t>
   </si>
@@ -66,7 +66,14 @@
     <t>Sanaston kirjoitus tiedoston alkuun. Purkualgoritmin aloitus.</t>
   </si>
   <si>
-    <t>Purkualgoritmin debuggausta. Purkualgoritmi mahdollisesti toimiikin jo oikein mutta Huffman-koodin pakkaus tavujen biteiksi lienee buginen. Nyt sekä pakkaus että purku toimii melkein: purussa vielä bugi joka tuottaa epämääräisiä virheitä striimin sekaan. Ongelma liittyy Huffman-koodiin joka luetaan kahdessa lohkossa levyltä (todiste: kun lohkokoko &gt; pakatun tiedoston koko, ongelma häviää).</t>
+    <t>Purkualgoritmin koodausta, debuggausta. Purkualgoritmi mahdollisesti toimiikin jo oikein mutta Huffman-koodin pakkaus tavujen biteiksi lienee buginen. Nyt sekä pakkaus että purku toimii melkein: purussa vielä bugi joka tuottaa epämääräisiä virheitä striimin sekaan. Ongelma liittyy Huffman-koodiin joka luetaan kahdessa lohkossa levyltä (todiste: kun lohkokoko &gt;= pakatun tiedoston koko, ongelma häviää).</t>
+  </si>
+  <si>
+    <t>Uudelleenkirjoitettu osia pakkausalgoritmista joka korjaa eilisen bugin. Nyt sekä pakkaus että purku toimii 100%. Hajautustaulukko kirjoitettu (iteraattorit avaimille ja arvoille puuttuu).</t>
+  </si>
+  <si>
+    <t>Hajautustaulukon iteraattorit toteutettu ja testattu.
+Kirjoitettu  yksikkötesti pääluokalle. Testattu erikokoisilla syötteillä,  käytetty testidata lisätty myös GitHubiin. JavaDoceja viimeistelty. Jäljellä työssä  prioriteettijonon toteutus.</t>
   </si>
 </sst>
 </file>
@@ -504,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,26 +647,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>41225</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>41226</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>41227</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -697,7 +716,7 @@
       </c>
       <c r="B24" s="9">
         <f>SUM(B6:B23)</f>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C24" s="8"/>
     </row>

--- a/Dokumentit/Tuntikirjanpito.xlsx
+++ b/Dokumentit/Tuntikirjanpito.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Tietorakenteiden ja Algoritmien harjoitustyö, periodi II</t>
   </si>
@@ -66,14 +66,32 @@
     <t>Sanaston kirjoitus tiedoston alkuun. Purkualgoritmin aloitus.</t>
   </si>
   <si>
-    <t>Purkualgoritmin koodausta, debuggausta. Purkualgoritmi mahdollisesti toimiikin jo oikein mutta Huffman-koodin pakkaus tavujen biteiksi lienee buginen. Nyt sekä pakkaus että purku toimii melkein: purussa vielä bugi joka tuottaa epämääräisiä virheitä striimin sekaan. Ongelma liittyy Huffman-koodiin joka luetaan kahdessa lohkossa levyltä (todiste: kun lohkokoko &gt;= pakatun tiedoston koko, ongelma häviää).</t>
-  </si>
-  <si>
     <t>Uudelleenkirjoitettu osia pakkausalgoritmista joka korjaa eilisen bugin. Nyt sekä pakkaus että purku toimii 100%. Hajautustaulukko kirjoitettu (iteraattorit avaimille ja arvoille puuttuu).</t>
   </si>
   <si>
     <t>Hajautustaulukon iteraattorit toteutettu ja testattu.
-Kirjoitettu  yksikkötesti pääluokalle. Testattu erikokoisilla syötteillä,  käytetty testidata lisätty myös GitHubiin. JavaDoceja viimeistelty. Jäljellä työssä  prioriteettijonon toteutus.</t>
+Kirjoitettu  yksikkötesti pääluokalle. Testattu erikokoisilla syötteillä,  käytetty testidata lisätty myös GitHubiin. JavaDoceja viimeistelty. Jäljellä työssä  prioriteettijonon toteutus minimikeolla, jonka työstäminen aloitettu.</t>
+  </si>
+  <si>
+    <t>Minimikeon koodaus ja testaus valmiiksi. Kaikki tietorakenteet nyt omia. Lempel-Ziv algoritmien tutkimista.</t>
+  </si>
+  <si>
+    <t>Lempel-Zivin tutkimista, LZW artikkelin lukemista ja oman LZW algoritmin miettimistä, koodauksen aloitus.</t>
+  </si>
+  <si>
+    <t>LZW pakkauksen koodausta.</t>
+  </si>
+  <si>
+    <t>LZW purkamisen koodausta.</t>
+  </si>
+  <si>
+    <t>Oman BittiInputStreamin koodaus itse. Testausta ja testien dokumentointia, koodin optimointia.</t>
+  </si>
+  <si>
+    <t>LZW purkamisen viimeistelyä, oman BittiOutputStreamin koodaus. Testausta ja testien dokumentointia, koodin optimointia.</t>
+  </si>
+  <si>
+    <t>Purkualgoritmin koodausta, debuggausta. Purkualgoritmi mahdollisesti toimiikin jo oikein mutta Huffman-koodin pakkaus tavujen biteiksi lienee buginen.</t>
   </si>
 </sst>
 </file>
@@ -509,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>41225</v>
       </c>
@@ -655,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -666,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -674,51 +692,106 @@
         <v>41227</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>41228</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>41229</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>41230</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A21" s="2">
+        <v>41231</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>41232</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>41233</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="9">
-        <f>SUM(B6:B23)</f>
-        <v>51</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="B28" s="9">
+        <f>SUM(B6:B27)</f>
+        <v>88</v>
+      </c>
+      <c r="C28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumentit/Tuntikirjanpito.xlsx
+++ b/Dokumentit/Tuntikirjanpito.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Tietorakenteiden ja Algoritmien harjoitustyö, periodi II</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Purkualgoritmin koodausta, debuggausta. Purkualgoritmi mahdollisesti toimiikin jo oikein mutta Huffman-koodin pakkaus tavujen biteiksi lienee buginen.</t>
+  </si>
+  <si>
+    <t>Refaktorointia</t>
+  </si>
+  <si>
+    <t>Toteutusdokumentin aloitus</t>
+  </si>
+  <si>
+    <t>Toteutusdokumentin kirjoittamista.</t>
   </si>
 </sst>
 </file>
@@ -124,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -201,11 +210,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -226,6 +246,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,18 +791,37 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="2">
+        <v>41242</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="11">
+        <v>41245</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
@@ -789,7 +834,7 @@
       </c>
       <c r="B28" s="9">
         <f>SUM(B6:B27)</f>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C28" s="8"/>
     </row>

--- a/Dokumentit/Tuntikirjanpito.xlsx
+++ b/Dokumentit/Tuntikirjanpito.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="16275" windowHeight="9720"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="11325" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Tietorakenteiden ja Algoritmien harjoitustyö, periodi II</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Toteutusdokumentin kirjoittamista.</t>
+  </si>
+  <si>
+    <t>BittiOutputStreamin käyttöönotto Huffman-algoritmissa, dokumentointia.</t>
+  </si>
+  <si>
+    <t>Demotilaisuus, testausta</t>
+  </si>
+  <si>
+    <t>Toteutuksen dokumentointia</t>
+  </si>
+  <si>
+    <t>Testauksen dokumentointia ja palautus</t>
   </si>
 </sst>
 </file>
@@ -157,21 +169,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -185,13 +182,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -202,23 +221,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -237,21 +243,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,11 +559,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -805,7 +809,7 @@
       <c r="A25" s="2">
         <v>41244</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -813,7 +817,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="8">
         <v>41245</v>
       </c>
       <c r="B26" s="5">
@@ -823,20 +827,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>41246</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>41247</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>41250</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>41252</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="9">
-        <f>SUM(B6:B27)</f>
-        <v>95</v>
-      </c>
-      <c r="C28" s="8"/>
+      <c r="B32" s="10">
+        <f>SUM(B6:B30)</f>
+        <v>107</v>
+      </c>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
